--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\和暉\Desktop\講義\PM実験３\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="9300" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12525" windowHeight="9300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOP" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +224,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>学科専用闇キャンパスポータルへようこそ</a:t>
+            <a:t>学科専用闇キャンパスポータルへようこそ  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5408,7 +5408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5424,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>

--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12525" windowHeight="9300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="TOP" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="成果物" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -739,6 +739,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -783,6 +788,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1697,7 +1707,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>な</a:t>
+            <a:t>や</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1979,7 +1989,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○先生　○○授業</a:t>
+            <a:t>五百井先生　ナレッジマネジメント</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2053,7 +2063,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○先生　○○授業</a:t>
+            <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2074,7 +2084,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -2086,7 +2096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5460628" y="4114800"/>
-          <a:ext cx="2768972" cy="276225"/>
+          <a:ext cx="2902322" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,7 +2137,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○先生　○○授業</a:t>
+            <a:t>田隈先生プロジェクトエンジニアリング</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2201,7 +2211,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○先生　○○授業</a:t>
+            <a:t>下田先生　コンピュータリテラシ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2275,7 +2285,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○先生　○○授業</a:t>
+            <a:t>矢吹先生　情報リテラシ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4216,7 +4226,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>田隈研究室　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4598,7 +4608,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4672,7 +4698,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4746,7 +4788,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4820,7 +4878,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4894,7 +4968,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>矢吹研究室</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -5360,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5376,7 +5450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -5424,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
